--- a/secondLevel_URL.xlsx
+++ b/secondLevel_URL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A600"/>
+  <dimension ref="A1:A660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,3946 +688,4366 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AN-SPECS/AN100-AN999/</t>
+          <t>http://everyspec.com/AIAA/?page=3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AN-SPECS/AN1000-AN9999/</t>
+          <t>http://everyspec.com/AN-SPECS/AN100-AN999/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AN-SPECS/AN10000-and-Up/</t>
+          <t>http://everyspec.com/AN-SPECS/AN1000-AN9999/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AN-SPECS/</t>
+          <t>http://everyspec.com/AN-SPECS/AN10000-and-Up/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AN10326_REV-1_NOTICE-2_56815/</t>
+          <t>http://everyspec.com/AN-SPECS/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10002_REV-2_35036/</t>
+          <t>http://everyspec.com/AND_SPECS/AN10326_REV-1_NOTICE-2_56815/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10050_REV-19_42993/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10002_REV-2_35036/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10050_REV-19_NOTICE-2_42994/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10050_REV-19_42993/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10050_REV-19_NOTICE-1_42995/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10050_REV-19_NOTICE-2_42994/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10050_REV-20_38758/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10050_REV-19_NOTICE-1_42995/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10050_REV-21_13079/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10050_REV-20_38758/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10051_REV-3_7738/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10050_REV-21_13079/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10052_REV-2_7492/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10051_REV-3_7738/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10052_REV-2_NOTICE-2_27780/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10052_REV-2_7492/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10052_REV-2_NOTICE-1_27781/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10052_REV-2_NOTICE-2_27780/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10059_REV-3_7488/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10052_REV-2_NOTICE-1_27781/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10059_REV-3_NOTICE-2_31079/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10059_REV-3_7488/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10059_REV-3_NOTICE-1_35035/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10059_REV-3_NOTICE-2_31079/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10064_REV-6__35071/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10059_REV-3_NOTICE-1_35035/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10065_REV-2_7737/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10064_REV-6__35071/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10065_REV-2_NOTICE-1_33642/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10065_REV-2_7737/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10067_REV-3_7736/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10065_REV-2_NOTICE-1_33642/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10068_REV-4_7489/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10067_REV-3_7736/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10071_REV-5_12966/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10068_REV-4_7489/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10081_REV-4_7493/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10071_REV-5_12966/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10081_REV-4_NOTICE-1_28268/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10081_REV-4_7493/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10089_REV-6_33643/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10081_REV-4_NOTICE-1_28268/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10089_REV-7_7496/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10089_REV-6_33643/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10089_REV-7_NOTICE-1_33644/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10089_REV-7_7496/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10102_REV-3_7487/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10089_REV-7_NOTICE-1_33644/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10102_REV-3_NOTICE-1_35030/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10102_REV-3_7487/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10104_REV-4_7486/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10102_REV-3_NOTICE-1_35030/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://everyspec.com/AND_SPECS/AND10104_REV-4_NOTICE-1_35029/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10104_REV-4_7486/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-B32--3_12900/</t>
+          <t>http://everyspec.com/AND_SPECS/AND10104_REV-4_NOTICE-1_35029/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-B32x3_NOTICE-1_34959/</t>
+          <t>http://everyspec.com/AND_SPECS/?page=3</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-C73A_12898/</t>
+          <t>http://everyspec.com/AND_SPECS/?page=4</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-S20x20_3727/</t>
+          <t>http://everyspec.com/AND_SPECS/?page=5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-Y10x5_3728/</t>
+          <t>http://everyspec.com/ANSI/ANSI-B32--3_12900/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-Y10x5_NOTICE-1_34955/</t>
+          <t>http://everyspec.com/ANSI/ANSI-B32x3_NOTICE-1_34959/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-Y14x3_3931/</t>
+          <t>http://everyspec.com/ANSI/ANSI-C73A_12898/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-Y14x3_NOTICE-1_34958/</t>
+          <t>http://everyspec.com/ANSI/ANSI-S20x20_3727/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-Z8x1_14135/</t>
+          <t>http://everyspec.com/ANSI/ANSI-Y10x5_3728/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-Z39x18_3932/</t>
+          <t>http://everyspec.com/ANSI/ANSI-Y10x5_NOTICE-1_34955/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-Z129--1_12903/</t>
+          <t>http://everyspec.com/ANSI/ANSI-Y14x3_3931/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-Z136--1_12902/</t>
+          <t>http://everyspec.com/ANSI/ANSI-Y14x3_NOTICE-1_34958/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/ANSI-Z136--6_12901/</t>
+          <t>http://everyspec.com/ANSI/ANSI-Z8x1_14135/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ANSI/</t>
+          <t>http://everyspec.com/ANSI/ANSI-Z39x18_3932/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ADS-Aero-Design-Std/</t>
+          <t>http://everyspec.com/ANSI/ANSI-Z129--1_12903/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/AR-Army-Regulation/</t>
+          <t>http://everyspec.com/ANSI/ANSI-Z136--1_12902/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/</t>
+          <t>http://everyspec.com/ANSI/ANSI-Z136--6_12901/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/FM-Field-Manual/</t>
+          <t>http://everyspec.com/ANSI/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/Test-Operations-Procedure/</t>
+          <t>http://everyspec.com/ARMY/ADS-Aero-Design-Std/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/TM-Tech-Manual/</t>
+          <t>http://everyspec.com/ARMY/AR-Army-Regulation/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/UDS-and-RCC/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/</t>
+          <t>http://everyspec.com/ARMY/FM-Field-Manual/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASQC/ASQC-A8402_12905/</t>
+          <t>http://everyspec.com/ARMY/Test-Operations-Procedure/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASQC/ASQC-Q9001_12906/</t>
+          <t>http://everyspec.com/ARMY/TM-Tech-Manual/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASQC/ASQC-Q9002_12907/</t>
+          <t>http://everyspec.com/ARMY/UDS-and-RCC/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASQC/ASQC-Q9003_12908/</t>
+          <t>http://everyspec.com/ARMY/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASQC/ASQC-Q9004x1_12909/</t>
+          <t>http://everyspec.com/ASQC/ASQC-A8402_12905/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASQC/ASQC-Z1x4_12904/</t>
+          <t>http://everyspec.com/ASQC/ASQC-Q9001_12906/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASQC/ASQC_Q9000x1_5805/</t>
+          <t>http://everyspec.com/ASQC/ASQC-Q9002_12907/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASQC/</t>
+          <t>http://everyspec.com/ASQC/ASQC-Q9003_12908/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-A53_A53M_ADOPTION_NOTICE_51281/</t>
+          <t>http://everyspec.com/ASQC/ASQC-Q9004x1_12909/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-A380_21313/</t>
+          <t>http://everyspec.com/ASQC/ASQC-Z1x4_12904/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-A967_ADOPTION_NOTICE_21314/</t>
+          <t>http://everyspec.com/ASQC/ASQC_Q9000x1_5805/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-B26-B26M_ADOPTION_NOTICE_52625/</t>
+          <t>http://everyspec.com/ASQC/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D1000_ADOPTION_NOTICE_11353/</t>
+          <t>http://everyspec.com/ASTM/ASTM-A53_A53M_ADOPTION_NOTICE_51281/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D1002_11354/</t>
+          <t>http://everyspec.com/ASTM/ASTM-A380_21313/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D1003_ADOPTION_NOTICE_11355/</t>
+          <t>http://everyspec.com/ASTM/ASTM-A967_ADOPTION_NOTICE_21314/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D1005_11357/</t>
+          <t>http://everyspec.com/ASTM/ASTM-B26-B26M_ADOPTION_NOTICE_52625/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D1056_20998/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D1000_ADOPTION_NOTICE_11353/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D1125_11358/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D1002_11354/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D1655_ADOPTION_NOTICE_11359/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D1003_ADOPTION_NOTICE_11355/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D1710_ADOPTION_NOTICE_51685/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D1005_11357/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D2000_21465/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D1056_20998/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D3951_16692/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D1125_11358/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D4268_6829/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D1655_ADOPTION_NOTICE_11359/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-D5118-D5118M_39453/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D1710_ADOPTION_NOTICE_51685/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-E1975_8441/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D2000_21465/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-E2375_6658/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D3951_16692/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-F883_46403/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D4268_6829/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-F1000_11360/</t>
+          <t>http://everyspec.com/ASTM/ASTM-D5118-D5118M_39453/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM-F1000_NOTICE-1_46404/</t>
+          <t>http://everyspec.com/ASTM/ASTM-E1975_8441/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/astm_d2221_68R84_9260/</t>
+          <t>http://everyspec.com/ASTM/ASTM-E2375_6658/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM_D5105_39729/</t>
+          <t>http://everyspec.com/ASTM/ASTM-F883_46403/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/ASTM_D_1974_D_1974M_ADOPTION_NOTICE_41813/</t>
+          <t>http://everyspec.com/ASTM/ASTM-F1000_11360/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ASTM/</t>
+          <t>http://everyspec.com/ASTM/ASTM-F1000_NOTICE-1_46404/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/120x1g1e1_325/</t>
+          <t>http://everyspec.com/ASTM/astm_d2221_68R84_9260/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/131x0b1_329/</t>
+          <t>http://everyspec.com/ASTM/ASTM_D5105_39729/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/232x1b1_330/</t>
+          <t>http://everyspec.com/ASTM/ASTM_D_1974_D_1974M_ADOPTION_NOTICE_41813/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/401x0b17_326/</t>
+          <t>http://everyspec.com/ASTM/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/720x2g3_328/</t>
+          <t>http://everyspec.com/CCSDS/120x1g1e1_325/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/CCSDS_230--1_G_1_2235/</t>
+          <t>http://everyspec.com/CCSDS/131x0b1_329/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/CCSDS_231--0_B_1_2255/</t>
+          <t>http://everyspec.com/CCSDS/232x1b1_330/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/CCSDS_412--0_G_1_2225/</t>
+          <t>http://everyspec.com/CCSDS/401x0b17_326/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/CCSDS_413--0_G_1_2240/</t>
+          <t>http://everyspec.com/CCSDS/720x2g3_328/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/CCSDS_500--0_G_2_2270/</t>
+          <t>http://everyspec.com/CCSDS/CCSDS_230--1_G_1_2235/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/CCSDS_910--2_G_1_2239/</t>
+          <t>http://everyspec.com/CCSDS/CCSDS_231--0_B_1_2255/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>http://everyspec.com/CCSDS/</t>
+          <t>http://everyspec.com/CCSDS/CCSDS_412--0_G_1_2225/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-00000_A-A-00999/</t>
+          <t>http://everyspec.com/CCSDS/CCSDS_413--0_G_1_2240/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-01000_A-A-01999/</t>
+          <t>http://everyspec.com/CCSDS/CCSDS_500--0_G_2_2270/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-02000_A-A-02999/</t>
+          <t>http://everyspec.com/CCSDS/CCSDS_910--2_G_1_2239/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-03000_A-A-03999/</t>
+          <t>http://everyspec.com/CCSDS/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-20000_A-A-20999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-00000_A-A-00999/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-50000_A-A-50999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-01000_A-A-01999/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-51000_A-A-51999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-02000_A-A-02999/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-52000_A-A-52999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-03000_A-A-03999/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-53000_A-A-53999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-20000_A-A-20999/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-54000_A-A-54999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-50000_A-A-50999/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-55000_A-A-55999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-51000_A-A-51999/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-56000_A-A-56999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-52000_A-A-52999/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-57000_A-A-57999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-53000_A-A-53999/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-58000_A-A-58999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-54000_A-A-54999/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-59000_A-A-59999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-55000_A-A-55999/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-60000_A-A-60999/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-56000_A-A-56999/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>http://everyspec.com/COMML_ITEM_DESC/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-57000_A-A-57999/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOCUMENT-TEMPLATES/CM_PLAN_TEMPLATE_19SEP2012_47778/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-58000_A-A-58999/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOCUMENT-TEMPLATES/Program_Protection_Plan_v3x1-ADDM_Template_47789/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-59000_A-A-59999/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOCUMENT-TEMPLATES/SEP_OUTLINE_USAF-ODASD_20APR2011_47786/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/A-A-60000_A-A-60999/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOCUMENT-TEMPLATES/SEP_OUTLINE_USAF-ODASD_20APR2011_47785/</t>
+          <t>http://everyspec.com/COMML_ITEM_DESC/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TEMP-ADDM_Template_v1_47788/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-ADMN/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TEMPLATE_CONFIG_MGMT_PLAN_VER-1_50355/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-ALSS/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TEMPLATE_SEMP_NASA-GRC_52016/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-ATTS/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TM-PP-02_V-1_10FEB2004_47790/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-CMAN/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TM-PP-02_VER_2-1_24may2005_47791/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-DRPR/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TM-PP-07_VER_1-2_08SEP2009_50352/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-EGDS/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOCUMENT-TEMPLATES/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-EMCS/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DoD/DOD-DAU-DSMC/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-ENVR/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DoD/DoD-FORMS/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-FNCL/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DoD/DOD-General/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-GDRQ/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DoD/DoD-HDBK/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-HFAC/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DoD/DoD-PRF-SPECS/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-ILSS/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DoD/DoD-PUBLICATIONS/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-IPSC/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DoD/DoD-SPECS/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-MCCR/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DoD/DoD-STD/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-MFFP/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DoD/DoD-UFC/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-MGMT/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DoD/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-MISC/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01JUL2016_54993/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-MNTY/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15JUN2016_54905/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-MSSM/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01JUN2016_54559/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-NDTI/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15MAY2016_54560/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-NUOR/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01MAY2016_54306/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-PACK/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15APR2016_54284/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-QCIC/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01APR2016_54237/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-RELI/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15MAR2016_54215/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-SAFT/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01MAR2016_54065/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-SDMP/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15MAR2016_54126/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-SESS/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15FEB2016_53922/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-TCSP/</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01FEB2016_53971/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/DI-TMSS/</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15JAN2016_53997/</t>
+          <t>http://everyspec.com/DATA-ITEM-DESC-DIDs/</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01JAN2016_53758/</t>
+          <t>http://everyspec.com/DOCUMENT-TEMPLATES/CM_PLAN_TEMPLATE_19SEP2012_47778/</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15DEC2015_53459/</t>
+          <t>http://everyspec.com/DOCUMENT-TEMPLATES/Program_Protection_Plan_v3x1-ADDM_Template_47789/</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01DEC2015_53281/</t>
+          <t>http://everyspec.com/DOCUMENT-TEMPLATES/SEP_OUTLINE_USAF-ODASD_20APR2011_47786/</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15NOV2015_53109/</t>
+          <t>http://everyspec.com/DOCUMENT-TEMPLATES/SEP_OUTLINE_USAF-ODASD_20APR2011_47785/</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01NOV2015_52831/</t>
+          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TEMP-ADDM_Template_v1_47788/</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15OCT2015_52627/</t>
+          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TEMPLATE_CONFIG_MGMT_PLAN_VER-1_50355/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01OCT2015_52629/</t>
+          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TEMPLATE_SEMP_NASA-GRC_52016/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/_52576/</t>
+          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TM-PP-02_V-1_10FEB2004_47790/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01SEP2015_52524/</t>
+          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TM-PP-02_VER_2-1_24may2005_47791/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15AUG2015_52336/</t>
+          <t>http://everyspec.com/DOCUMENT-TEMPLATES/TM-PP-07_VER_1-2_08SEP2009_50352/</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01AUG2015_52233/</t>
+          <t>http://everyspec.com/DOCUMENT-TEMPLATES/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15JUL2015_52159/</t>
+          <t>http://everyspec.com/DoD/DOD-DAU-DSMC/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01JUL2015_52160/</t>
+          <t>http://everyspec.com/DoD/DoD-FORMS/</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01JAN2015_52125/</t>
+          <t>http://everyspec.com/DoD/DOD-General/</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15NOV2014_52087/</t>
+          <t>http://everyspec.com/DoD/DoD-HDBK/</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01NOV2014_51952/</t>
+          <t>http://everyspec.com/DoD/DoD-PRF-SPECS/</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOE/DOE-General/</t>
+          <t>http://everyspec.com/DoD/DoD-PUBLICATIONS/</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOE/DOE-HDBK/</t>
+          <t>http://everyspec.com/DoD/DoD-SPECS/</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOE/DOE-PUBS/</t>
+          <t>http://everyspec.com/DoD/DoD-STD/</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOE/DOE-STD/</t>
+          <t>http://everyspec.com/DoD/DoD-UFC/</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOE/</t>
+          <t>http://everyspec.com/DoD/</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/CT93-69_VOL-I_37876/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01JUL2016_54993/</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/CT93-69_VOL-II_37907/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15JUN2016_54905/</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/DOT-FAA-AR-05_15__AUG2005_37908/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01JUN2016_54559/</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/DOT-VNTSC-RSPA-94-2_11576/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15MAY2016_54560/</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/DOT_MUTCD_2007_REV1and2_26066/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01MAY2016_54306/</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/DOT_MUTCD_2009_26065/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15APR2016_54284/</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/DOT_MUTCD_2009_REV-1andREV-2_49480/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01APR2016_54237/</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/DOT_SYS-ENG_INTELLIGENT_TRANSPORTATION_SYSTEMS_JAN2007_20317/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15MAR2016_54215/</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/ERG_2008_11574/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01MAR2016_54065/</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/FHWA-OP-04-013_SEP2003_41209/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15MAR2016_54126/</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/HAZMAT_REGULATIONS_DOT_11575/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15FEB2016_53922/</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/OFFICE_HAZARDOUS_MATL_ENFORCEMENT_OPS_-MAN_JUN2007_11573/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01FEB2016_53971/</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>http://everyspec.com/DOT/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15JAN2016_53997/</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/BSSC_98-3_I1_1998_29383/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01JAN2016_53758/</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/BSSC_2000-1_I1_2000_29384/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15DEC2015_53459/</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/BSSC_2005-2_I1_2005_29385/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01DEC2015_53281/</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-00A_14992/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15NOV2015_53109/</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-10A_14021/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01NOV2015_52831/</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-10-02A_14991/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15OCT2015_52627/</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-10-02C_47796/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01OCT2015_52629/</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-10-03A_14019/</t>
+          <t>http://everyspec.com/DODSSP/_52576/</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-10-04A_14020/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01SEP2015_52524/</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-10-05A_14990/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15AUG2015_52336/</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-10-09A_DRAFT_1x1_48463/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01AUG2015_52233/</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-20A_14039/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15JUL2015_52159/</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-20-01A_REV-1_47803/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01JUL2015_52160/</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-30-01A_14993/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01JAN2015_52125/</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-30_Part-2A_14040/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_15NOV2014_52087/</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-30_PART5B_DRAFT_14022/</t>
+          <t>http://everyspec.com/DODSSP/ASSIST_UPDATE_01NOV2014_51952/</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-30_6A_APR2000_2561/</t>
+          <t>http://everyspec.com/DODSSP/?page=3</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-30_7A_APR2000_2560/</t>
+          <t>http://everyspec.com/DODSSP/?page=4</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-30-11A_47901/</t>
+          <t>http://everyspec.com/DODSSP/?page=5</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-33-11A_47902/</t>
+          <t>http://everyspec.com/DOE/DOE-General/</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-40A_14994/</t>
+          <t>http://everyspec.com/DOE/DOE-HDBK/</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-40_Part_1B_2481/</t>
+          <t>http://everyspec.com/DOE/DOE-PUBS/</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-40B_Draft-1_9992/</t>
+          <t>http://everyspec.com/DOE/DOE-STD/</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-40_PART_2B_2480/</t>
+          <t>http://everyspec.com/DOE/</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-50_12A_JAN2003_2431/</t>
+          <t>http://everyspec.com/DOT/CT93-69_VOL-I_37876/</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-60A_SEP2004_2432/</t>
+          <t>http://everyspec.com/DOT/CT93-69_VOL-II_37907/</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-70_Part_1A_2565/</t>
+          <t>http://everyspec.com/DOT/DOT-FAA-AR-05_15__AUG2005_37908/</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-70_Part_2A_2483/</t>
+          <t>http://everyspec.com/DOT/DOT-VNTSC-RSPA-94-2_11576/</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ESA/ECSS-E-70-11A_47903/</t>
+          <t>http://everyspec.com/DOT/DOT_MUTCD_2007_REV1and2_26066/</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FAA/FAA-AC-PUBS/</t>
+          <t>http://everyspec.com/DOT/DOT_MUTCD_2009_26065/</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FAA/FAA-General/</t>
+          <t>http://everyspec.com/DOT/DOT_MUTCD_2009_REV-1andREV-2_49480/</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FAA/FAA-HDBK/</t>
+          <t>http://everyspec.com/DOT/DOT_SYS-ENG_INTELLIGENT_TRANSPORTATION_SYSTEMS_JAN2007_20317/</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FAA/FAA-Spec/</t>
+          <t>http://everyspec.com/DOT/ERG_2008_11574/</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FAA/FAA-STD/</t>
+          <t>http://everyspec.com/DOT/FHWA-OP-04-013_SEP2003_41209/</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FAA/</t>
+          <t>http://everyspec.com/DOT/HAZMAT_REGULATIONS_DOT_11575/</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/A/</t>
+          <t>http://everyspec.com/DOT/OFFICE_HAZARDOUS_MATL_ENFORCEMENT_OPS_-MAN_JUN2007_11573/</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/B/</t>
+          <t>http://everyspec.com/DOT/</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/C/</t>
+          <t>http://everyspec.com/ESA/BSSC_98-3_I1_1998_29383/</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/D/</t>
+          <t>http://everyspec.com/ESA/BSSC_2000-1_I1_2000_29384/</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/E/</t>
+          <t>http://everyspec.com/ESA/BSSC_2005-2_I1_2005_29385/</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/F/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-00A_14992/</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/G/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-10A_14021/</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/H/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-10-02A_14991/</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/J/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-10-02C_47796/</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/K/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-10-03A_14019/</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/L/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-10-04A_14020/</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/M/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-10-05A_14990/</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/N/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-10-09A_DRAFT_1x1_48463/</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/O/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-20A_14039/</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/P/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-20-01A_REV-1_47803/</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/Q/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-30-01A_14993/</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/R/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-30_Part-2A_14040/</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/S/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-30_PART5B_DRAFT_14022/</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/T/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-30_6A_APR2000_2561/</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/U/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-30_7A_APR2000_2560/</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/V/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-30-11A_47901/</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/W/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-33-11A_47902/</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/X/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-40A_14994/</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/Z/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-40_Part_1B_2481/</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED_SPECS/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-40B_Draft-1_9992/</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-1A_4686/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-40_PART_2B_2480/</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-1_NOTICE-1_25733/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-50_12A_JAN2003_2431/</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-3_11136/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-60A_SEP2004_2432/</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-3_AMENDMENT-1_11137/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-70_Part_1A_2565/</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-3_NOTICE-2_46118/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-70_Part_2A_2483/</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-4B_23388/</t>
+          <t>http://everyspec.com/ESA/ECSS-E-70-11A_47903/</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-4B_NOTICE-1_23390/</t>
+          <t>http://everyspec.com/ESA/?page=3</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-4B_AMENDMENT-2_23389/</t>
+          <t>http://everyspec.com/ESA/?page=4</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-5F_22877/</t>
+          <t>http://everyspec.com/ESA/?page=5</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-48B_8105/</t>
+          <t>http://everyspec.com/ESA/?page=6</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-48B_NOTICE-1_8106/</t>
+          <t>http://everyspec.com/ESA/?page=7</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-49D_28093/</t>
+          <t>http://everyspec.com/ESA/?page=8</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-50H_28094/</t>
+          <t>http://everyspec.com/FAA/FAA-AC-PUBS/</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-59_28101/</t>
+          <t>http://everyspec.com/FAA/FAA-General/</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-0059A_28103/</t>
+          <t>http://everyspec.com/FAA/FAA-HDBK/</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-59_NOTICE-1_28102/</t>
+          <t>http://everyspec.com/FAA/FAA-Spec/</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-61A_23382/</t>
+          <t>http://everyspec.com/FAA/FAA-STD/</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-61A_NOTICE-1_23381/</t>
+          <t>http://everyspec.com/FAA/</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-65C_23383/</t>
+          <t>http://everyspec.com/FED_SPECS/A/</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-66D_6212/</t>
+          <t>http://everyspec.com/FED_SPECS/B/</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-66D_NOTICE-1_28104/</t>
+          <t>http://everyspec.com/FED_SPECS/C/</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-66D_NOTICE-2_28105/</t>
+          <t>http://everyspec.com/FED_SPECS/D/</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-66D_NOTICE-3_20547/</t>
+          <t>http://everyspec.com/FED_SPECS/E/</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-73_NOTICE-1_28107/</t>
+          <t>http://everyspec.com/FED_SPECS/F/</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-74A_NOTICE-1_28106/</t>
+          <t>http://everyspec.com/FED_SPECS/G/</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-101C_21226/</t>
+          <t>http://everyspec.com/FED_SPECS/H/</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-101C_NOTICE-4_21228/</t>
+          <t>http://everyspec.com/FED_SPECS/J/</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-102B_11815/</t>
+          <t>http://everyspec.com/FED_SPECS/K/</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>http://everyspec.com/FED-STD/FED-STD-102B_NOTICE-1_25734/</t>
+          <t>http://everyspec.com/FED_SPECS/L/</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-A-179_20209/</t>
+          <t>http://everyspec.com/FED_SPECS/M/</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-A-183_51779/</t>
+          <t>http://everyspec.com/FED_SPECS/N/</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-A-183_NOTICE-1_51776/</t>
+          <t>http://everyspec.com/FED_SPECS/O/</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-A-183_NOTICE-2_51777/</t>
+          <t>http://everyspec.com/FED_SPECS/P/</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-A-183_NOTICE-3_51778/</t>
+          <t>http://everyspec.com/FED_SPECS/Q/</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-A-256_NOTICE-2_13863/</t>
+          <t>http://everyspec.com/FED_SPECS/R/</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-A-459_8961/</t>
+          <t>http://everyspec.com/FED_SPECS/S/</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-A-465_14960/</t>
+          <t>http://everyspec.com/FED_SPECS/T/</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-A-465_NOTICE-1_51783/</t>
+          <t>http://everyspec.com/FED_SPECS/U/</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-A-667_54841/</t>
+          <t>http://everyspec.com/FED_SPECS/V/</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-B-366_20210/</t>
+          <t>http://everyspec.com/FED_SPECS/W/</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-B-660_8954/</t>
+          <t>http://everyspec.com/FED_SPECS/X/</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-99_8950/</t>
+          <t>http://everyspec.com/FED_SPECS/Z/</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-99_AMENDMENT-1_8951/</t>
+          <t>http://everyspec.com/FED_SPECS/</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-99_NOTICE-1_30774/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-1A_4686/</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-99_NOTICE-2_30773/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-1_NOTICE-1_25733/</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-178A_8965/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-3_11136/</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-178A_AMENDMENT-1_8966/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-3_AMENDMENT-1_11137/</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-178A_NOTICE-1_51784/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-3_NOTICE-2_46118/</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-238_56820/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-4B_23388/</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-263_26673/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-4B_NOTICE-1_23390/</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-263_NOTICE-1_26676/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-4B_AMENDMENT-2_23389/</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-263_NOTICE-2_26675/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-5F_22877/</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-263_NOTICE-3_26674/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-48B_8105/</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-628_8953/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-48B_NOTICE-1_8106/</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-677_51780/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-49D_28093/</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-677_NOTICE-1_51782/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-50H_28094/</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-677_AMENDMENT-2_51781/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-59_28101/</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAN_SPECS/JAN-C-1196_8952/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-0059A_28103/</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAXA/JAXA-QTS-2030B_13678/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-59_NOTICE-1_28102/</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAXA/JAXA-QTS-2060B_13677/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-61A_23382/</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAXA/JAXA-QTS-2060C_18237/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-61A_NOTICE-1_23381/</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAXA/JAXA-QTS-2110A_13681/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-65C_23383/</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAXA/JAXA-QTS-2120A_13680/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-66D_6212/</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAXA/JAXA-QTS-2180_13679/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-66D_NOTICE-1_28104/</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAXA/JAXA_ADS-2060-D114_13676/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-66D_NOTICE-2_28105/</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAXA/JAXA_GBA-99010C_13675/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-66D_NOTICE-3_20547/</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>http://everyspec.com/JAXA/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-73_NOTICE-1_28107/</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0001-0099/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-74A_NOTICE-1_28106/</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0099-0199/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-101C_21226/</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0200-0299/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-101C_NOTICE-4_21228/</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0300-0499/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-102B_11815/</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0500-0599/</t>
+          <t>http://everyspec.com/FED-STD/FED-STD-102B_NOTICE-1_25734/</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0600-0699/</t>
+          <t>http://everyspec.com/FED-STD/?page=3</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0700-0799/</t>
+          <t>http://everyspec.com/FED-STD/?page=4</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0800-0999/</t>
+          <t>http://everyspec.com/FED-STD/?page=5</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-1000-1299/</t>
+          <t>http://everyspec.com/FED-STD/?page=6</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-1300-1499/</t>
+          <t>http://everyspec.com/FED-STD/?page=7</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-1500-1799/</t>
+          <t>http://everyspec.com/FED-STD/?page=8</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-1800-1999/</t>
+          <t>http://everyspec.com/FED-STD/?page=9</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-2000-2999/</t>
+          <t>http://everyspec.com/FED-STD/?page=10</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-3000-8999/</t>
+          <t>http://everyspec.com/FED-STD/?page=11</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-9000-and-Up/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-A-179_20209/</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-HDBK/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-A-183_51779/</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-PRF/MIL-PRF-000100-09999/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-A-183_NOTICE-1_51776/</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-PRF/MIL-PRF-010000-29999/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-A-183_NOTICE-2_51777/</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-PRF/MIL-PRF-030000-79999/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-A-183_NOTICE-3_51778/</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-PRF/MIL-PRF-080000-99999/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-A-256_NOTICE-2_13863/</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-PRF/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-A-459_8961/</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-A/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-A-465_14960/</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-B/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-A-465_NOTICE-1_51783/</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-C/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-A-667_54841/</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-D/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-B-366_20210/</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-DTL/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-B-660_8954/</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-E/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-99_8950/</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-F/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-99_AMENDMENT-1_8951/</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-G/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-99_NOTICE-1_30774/</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-H/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-99_NOTICE-2_30773/</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-I/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-178A_8965/</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-J/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-178A_AMENDMENT-1_8966/</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-K/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-178A_NOTICE-1_51784/</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-L/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-238_56820/</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-M/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-263_26673/</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-N/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-263_NOTICE-1_26676/</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-O/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-263_NOTICE-2_26675/</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-P/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-263_NOTICE-3_26674/</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-Q/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-628_8953/</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-R/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-677_51780/</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-S/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-677_NOTICE-1_51782/</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-T/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-677_AMENDMENT-2_51781/</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-U/</t>
+          <t>http://everyspec.com/JAN_SPECS/JAN-C-1196_8952/</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-V/</t>
+          <t>http://everyspec.com/JAN_SPECS/?page=3</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-W/</t>
+          <t>http://everyspec.com/JAXA/JAXA-QTS-2030B_13678/</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-X/</t>
+          <t>http://everyspec.com/JAXA/JAXA-QTS-2060B_13677/</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-Y/</t>
+          <t>http://everyspec.com/JAXA/JAXA-QTS-2060C_18237/</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-Z/</t>
+          <t>http://everyspec.com/JAXA/JAXA-QTS-2110A_13681/</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-SPECS/</t>
+          <t>http://everyspec.com/JAXA/JAXA-QTS-2120A_13680/</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-0000-0099/</t>
+          <t>http://everyspec.com/JAXA/JAXA-QTS-2180_13679/</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-0100-0299/</t>
+          <t>http://everyspec.com/JAXA/JAXA_ADS-2060-D114_13676/</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-0300-0499/</t>
+          <t>http://everyspec.com/JAXA/JAXA_GBA-99010C_13675/</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-0500-0699/</t>
+          <t>http://everyspec.com/JAXA/</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-0700-0799/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0001-0099/</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-0800-0899/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0099-0199/</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-0900-1099/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0200-0299/</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-10000-and-Up/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0300-0499/</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-1100-1299/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0500-0599/</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-1300-1399/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0600-0699/</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-1400-1499/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0700-0799/</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-1500-1599/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-0800-0999/</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-1600-1699/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-1000-1299/</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-1700-1799/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-1300-1499/</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-1800-1999/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-1500-1799/</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-2000-2999/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-1800-1999/</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/MIL-STD-3000-9999/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-2000-2999/</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MIL-STD/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-3000-8999/</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100_0031D_50787/</t>
+          <t>http://everyspec.com/MIL-HDBK/MIL-HDBK-9000-and-Up/</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100_86B_56641/</t>
+          <t>http://everyspec.com/MIL-HDBK/</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100_102E_50790/</t>
+          <t>http://everyspec.com/MIL-PRF/MIL-PRF-000100-09999/</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100-102F_50801/</t>
+          <t>http://everyspec.com/MIL-PRF/MIL-PRF-010000-29999/</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100-103A_50785/</t>
+          <t>http://everyspec.com/MIL-PRF/MIL-PRF-030000-79999/</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100_187C_50805/</t>
+          <t>http://everyspec.com/MIL-PRF/MIL-PRF-080000-99999/</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100-190C_50803/</t>
+          <t>http://everyspec.com/MIL-PRF/</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100-190C_AMENDMENT-1_50804/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-A/</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100_214E_56642/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-B/</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100_214F_50786/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-C/</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100_215B_50788/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-D/</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100_244D_50802/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-DTL/</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100-353D_56643/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-E/</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/5100_380E_50789/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-F/</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/9000-D6202_74031_REV-P_44647/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-G/</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/9000-s6405_74222_REV-B_44648/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-H/</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/AG_HNBK_700_2004_50328/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-I/</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/AH-160_SEP1969_28187/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-J/</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/AH-188_AUG1991_28186/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-K/</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/AH-252_FEB1964_28185/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-L/</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/AIM-BC1_11349/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-M/</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/ASD-S1000D_11350/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-N/</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/BHMA-A156x20_46401/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-O/</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/BLM_COST_ESTIMATING_HDBK_DEC2002_17028/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-P/</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/C8597555_REV-M_15874/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-Q/</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/C8597555_REV-V_15870/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-R/</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/CAPM39-1_2005_29148/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-S/</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/CAPM39-1E_1997_20324/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-T/</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MISC/DMA_TR80-003_34741/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-U/</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MS-Specs/DS/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-V/</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MS-Specs/MS1/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-W/</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MS-Specs/MS2/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-X/</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MS-Specs/MS3/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-Y/</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MS-Specs/MS4/</t>
+          <t>http://everyspec.com/MIL-SPECS/MIL-SPECS-MIL-Z/</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MS-Specs/MS5/</t>
+          <t>http://everyspec.com/MIL-SPECS/</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MS-Specs/MS6/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-0000-0099/</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MS-Specs/MS7/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-0100-0299/</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MS-Specs/MS8/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-0300-0499/</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MS-Specs/MS9/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-0500-0699/</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>http://everyspec.com/MS-Specs/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-0700-0799/</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-CxP-PUBS/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-0800-0899/</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-General/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-0900-1099/</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-GSFC/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-10000-and-Up/</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-JPL/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-1100-1299/</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-JSC/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-1300-1399/</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-KSC/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-1400-1499/</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-LaRC/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-1500-1599/</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-MSFC/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-1600-1699/</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-NASA-HDBK/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-1700-1799/</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-NASA-STD/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-1800-1999/</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-NPD-PUBS/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-2000-2999/</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-NPG-PUBS/</t>
+          <t>http://everyspec.com/MIL-STD/MIL-STD-3000-9999/</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-NPR-PUBS/</t>
+          <t>http://everyspec.com/MIL-STD/</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-NRP-PUBS/</t>
+          <t>http://everyspec.com/MISC/5100_0031D_50787/</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-NSS-PUBS/</t>
+          <t>http://everyspec.com/MISC/5100_86B_56641/</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-NSTS-ISS-PUBS/</t>
+          <t>http://everyspec.com/MISC/5100_102E_50790/</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-PRP-PUBS/</t>
+          <t>http://everyspec.com/MISC/5100-102F_50801/</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/NASA-SP-PUBS/</t>
+          <t>http://everyspec.com/MISC/5100-103A_50785/</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NASA/</t>
+          <t>http://everyspec.com/MISC/5100_187C_50805/</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NATO/NATO-AASTP/</t>
+          <t>http://everyspec.com/MISC/5100-190C_50803/</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NATO/NATO-AECTP/</t>
+          <t>http://everyspec.com/MISC/5100-190C_AMENDMENT-1_50804/</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NATO/NATO-AQAP/</t>
+          <t>http://everyspec.com/MISC/5100_214E_56642/</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NATO/NATO-ARMP/</t>
+          <t>http://everyspec.com/MISC/5100_214F_50786/</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NATO/NATO-ATP/</t>
+          <t>http://everyspec.com/MISC/5100_215B_50788/</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NATO/NATO-STANAG/</t>
+          <t>http://everyspec.com/MISC/5100_244D_50802/</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NATO/</t>
+          <t>http://everyspec.com/MISC/5100-353D_56643/</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/</t>
+          <t>http://everyspec.com/MISC/5100_380E_50789/</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/</t>
+          <t>http://everyspec.com/MISC/9000-D6202_74031_REV-P_44647/</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-HDBK/</t>
+          <t>http://everyspec.com/MISC/9000-s6405_74222_REV-B_44648/</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/</t>
+          <t>http://everyspec.com/MISC/AG_HNBK_700_2004_50328/</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NUREG/NUREG_0492_123/</t>
+          <t>http://everyspec.com/MISC/AH-160_SEP1969_28187/</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NUREG/NUREG-0700_REV2_20707/</t>
+          <t>http://everyspec.com/MISC/AH-188_AUG1991_28186/</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NUREG/NUREG-0711_REV2_20708/</t>
+          <t>http://everyspec.com/MISC/AH-252_FEB1964_28185/</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NUREG/NUREG-1855_V-1_36283/</t>
+          <t>http://everyspec.com/MISC/AIM-BC1_11349/</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NUREG/NUREG-CR6782_2003_29228/</t>
+          <t>http://everyspec.com/MISC/ASD-S1000D_11350/</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NUREG/NUREG_CR2815_1984_29227/</t>
+          <t>http://everyspec.com/MISC/BHMA-A156x20_46401/</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NUREG/NUREG_CR6823_2002_109/</t>
+          <t>http://everyspec.com/MISC/BLM_COST_ESTIMATING_HDBK_DEC2002_17028/</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NUREG/NUREG_CR6883_2005_29226/</t>
+          <t>http://everyspec.com/MISC/C8597555_REV-M_15874/</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NUREG/</t>
+          <t>http://everyspec.com/MISC/C8597555_REV-V_15870/</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/_SAE-AS21916_ADOPTION_NOTICE_50245/</t>
+          <t>http://everyspec.com/MISC/CAPM39-1_2005_29148/</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE_AS83461_1_45033/</t>
+          <t>http://everyspec.com/MISC/CAPM39-1E_1997_20324/</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE_AS83461_2_45034/</t>
+          <t>http://everyspec.com/MISC/DMA_TR80-003_34741/</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS379_13090/</t>
+          <t>http://everyspec.com/MISC/?page=3</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS379-9_13125/</t>
+          <t>http://everyspec.com/MISC/?page=4</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS381-3_13136/</t>
+          <t>http://everyspec.com/MISC/?page=5</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS2175_6734/</t>
+          <t>http://everyspec.com/MS-Specs/DS/</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS2590_ADOPTION_NOTICE_51270/</t>
+          <t>http://everyspec.com/MS-Specs/MS1/</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS2700_ADOPTION_11460/</t>
+          <t>http://everyspec.com/MS-Specs/MS2/</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS2750_11185/</t>
+          <t>http://everyspec.com/MS-Specs/MS3/</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS2759_6081/</t>
+          <t>http://everyspec.com/MS-Specs/MS4/</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS2768_ADOPTION__NOTICE_42982/</t>
+          <t>http://everyspec.com/MS-Specs/MS5/</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3792-1_12883/</t>
+          <t>http://everyspec.com/MS-Specs/MS6/</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3792-2_12882/</t>
+          <t>http://everyspec.com/MS-Specs/MS7/</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3792-3_12884/</t>
+          <t>http://everyspec.com/MS-Specs/MS8/</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-1_13091/</t>
+          <t>http://everyspec.com/MS-Specs/MS9/</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-2_13117/</t>
+          <t>http://everyspec.com/MS-Specs/</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-3_13118/</t>
+          <t>http://everyspec.com/NASA/NASA-CxP-PUBS/</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-4_13119/</t>
+          <t>http://everyspec.com/NASA/NASA-General/</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-5_13120/</t>
+          <t>http://everyspec.com/NASA/NASA-GSFC/</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-6_13121/</t>
+          <t>http://everyspec.com/NASA/NASA-JPL/</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-7_13122/</t>
+          <t>http://everyspec.com/NASA/NASA-JSC/</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-8_13123/</t>
+          <t>http://everyspec.com/NASA/NASA-KSC/</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-9_13124/</t>
+          <t>http://everyspec.com/NASA/NASA-LaRC/</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-10_12895/</t>
+          <t>http://everyspec.com/NASA/NASA-MSFC/</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-11_12896/</t>
+          <t>http://everyspec.com/NASA/NASA-NASA-HDBK/</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-12_12894/</t>
+          <t>http://everyspec.com/NASA/NASA-NASA-STD/</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-13_12897/</t>
+          <t>http://everyspec.com/NASA/NASA-NPD-PUBS/</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>http://everyspec.com/SAE/SAE-AMS3798-14_13092/</t>
+          <t>http://everyspec.com/NASA/NASA-NPG-PUBS/</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAB/ADA_ARCHITECTURE_BARRIERS_ACT_ACCESSIBILITY_GUIDELINES_23JUL04_8561/</t>
+          <t>http://everyspec.com/NASA/NASA-NPR-PUBS/</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAB/ADA_ARCHITECTURE_BARRIERS_ACT_ACCESSIBILITY_GUIDELINES_CORRECTIONS_5AUG2005_8562/</t>
+          <t>http://everyspec.com/NASA/NASA-NRP-PUBS/</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAB/ADA_ARCHITECTURE_BARRIERS_ACT_ACCESSIBILITY_GUIDELINES_SUPPLEMENT_23MAR07_8563/</t>
+          <t>http://everyspec.com/NASA/NASA-NSS-PUBS/</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAB/</t>
+          <t>http://everyspec.com/NASA/NASA-NSTS-ISS-PUBS/</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAF/TORs/</t>
+          <t>http://everyspec.com/NASA/NASA-PRP-PUBS/</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAF/USAF-AFMC/</t>
+          <t>http://everyspec.com/NASA/NASA-SP-PUBS/</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAF/USAF-AFSC/</t>
+          <t>http://everyspec.com/NASA/</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAF/USAF-General/</t>
+          <t>http://everyspec.com/NATO/NATO-AASTP/</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAF/USAF-RADC/</t>
+          <t>http://everyspec.com/NATO/NATO-AECTP/</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAF/USAF-SMC/</t>
+          <t>http://everyspec.com/NATO/NATO-AQAP/</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAF/USAF-Tech-Manuals/</t>
+          <t>http://everyspec.com/NATO/NATO-ARMP/</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USAF/</t>
+          <t>http://everyspec.com/NATO/NATO-ATP/</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/CGTO_PG-85-00-110_2007_28633/</t>
+          <t>http://everyspec.com/NATO/NATO-STANAG/</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/CGTO_PG-85-00-40-S_2009_30233/</t>
+          <t>http://everyspec.com/NATO/</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M5728--2C_Public-Affairs_4096/</t>
+          <t>http://everyspec.com/NIST/NIST-FIPS/</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_9000_6E_50595/</t>
+          <t>http://everyspec.com/NIST/NIST-General/</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M4610--5A_30402/</t>
+          <t>http://everyspec.com/NIST/NIST-HDBK/</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M5260x6_29054/</t>
+          <t>http://everyspec.com/NIST/</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M5728--2D_JAN2008_51446/</t>
+          <t>http://everyspec.com/NUREG/NUREG_0492_123/</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M9085--1A_14485/</t>
+          <t>http://everyspec.com/NUREG/NUREG-0700_REV2_20707/</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M9085--1B_14486/</t>
+          <t>http://everyspec.com/NUREG/NUREG-0711_REV2_20708/</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M10360x3B_4093/</t>
+          <t>http://everyspec.com/NUREG/NUREG-1855_V-1_36283/</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M10360x3C_52514/</t>
+          <t>http://everyspec.com/NUREG/NUREG-CR6782_2003_29228/</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M10360--3C_CHG-1_13797/</t>
+          <t>http://everyspec.com/NUREG/NUREG_CR2815_1984_29227/</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M10470x10E_50603/</t>
+          <t>http://everyspec.com/NUREG/NUREG_CR6823_2002_109/</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M10550-25B_9349/</t>
+          <t>http://everyspec.com/NUREG/NUREG_CR6883_2005_29226/</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M13020-1F_9348/</t>
+          <t>http://everyspec.com/NUREG/</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M16114x5C_50599/</t>
+          <t>http://everyspec.com/SAE/_SAE-AS21916_ADOPTION_NOTICE_50245/</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M16114x24B_4098/</t>
+          <t>http://everyspec.com/SAE/SAE_AS83461_1_45033/</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M16114x28_50609/</t>
+          <t>http://everyspec.com/SAE/SAE_AS83461_2_45034/</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M16114--32_50596/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS379_13090/</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M16114_37A_JUN2004_50594/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS379-9_13125/</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M16794_51A_4095/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS381-3_13136/</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMDTINST_M16796x8_4097/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS2175_6734/</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/COMMANDANT_PUBLICATION_P16562--5-pdf_4099/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS2590_ADOPTION_NOTICE_51270/</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/M16672x2D_50606/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS2700_ADOPTION_11460/</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/MLCA_STD_SPEC_0740_STD_2004_3693/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS2750_11185/</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/MLCA_STD_SPEC_3141_STD_14487/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS2759_6081/</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/MLCPAC_STANDARD_SPECIFICATION_634-_DECK_COVERING_RENEWAL_3864/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS2768_ADOPTION__NOTICE_42982/</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/MLCPAC_STD-SPEC_304x2_4094/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3792-1_12883/</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USCG/MLCPAC_STD_SPEC_074_4091/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3792-2_12882/</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MAGTF-JA-HDBK_2013_49369/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3792-3_12884/</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCDP-1_20JUN1997_21376/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-1_13091/</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCDP_1-0_2001_35346/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-2_13117/</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCDP_1-1_12NOV1997_50420/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-3_13118/</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCDP_1-2_1997_35347/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-4_13119/</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCDP_1-3_1997_35358/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-5_13120/</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCDP_2_1997_35350/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-6_13121/</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCDP_3_1998_35359/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-7_13122/</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCDP_4_1997_35360/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-8_13123/</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCDP_5_1997_35349/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-9_13124/</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCDP_6_1996_35348/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-10_12895/</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCO_P1020--34G_CHG_1-5_31MAR2003_50116/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-11_12896/</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCO_P4030x36A_14023/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-12_12894/</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_3-02B_13346/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-13_12897/</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_3-0A_1996_35376/</t>
+          <t>http://everyspec.com/SAE/SAE-AMS3798-14_13092/</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_3-01A_29MAR2001_13708/</t>
+          <t>http://everyspec.com/SAE/?page=3</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_3-01B_11851/</t>
+          <t>http://everyspec.com/SAE/?page=4</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_3-02C_2003_35365/</t>
+          <t>http://everyspec.com/SAE/?page=5</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_3-11x1A_1988_35377/</t>
+          <t>http://everyspec.com/SAE/?page=6</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_3-31_2000_35373/</t>
+          <t>http://everyspec.com/USAB/ADA_ARCHITECTURE_BARRIERS_ACT_ACCESSIBILITY_GUIDELINES_23JUL04_8561/</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_3-35--1D_2011_35374/</t>
+          <t>http://everyspec.com/USAB/ADA_ARCHITECTURE_BARRIERS_ACT_ACCESSIBILITY_GUIDELINES_CORRECTIONS_5AUG2005_8562/</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_4-11x8B_2005_35355/</t>
+          <t>http://everyspec.com/USAB/ADA_ARCHITECTURE_BARRIERS_ACT_ACCESSIBILITY_GUIDELINES_SUPPLEMENT_23MAR07_8563/</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_5-2A_FM_101-5-1_1997_35368/</t>
+          <t>http://everyspec.com/USAB/</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_5-12D_1998_35367/</t>
+          <t>http://everyspec.com/USAF/TORs/</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_6-11B_CHG-1_1998_35366/</t>
+          <t>http://everyspec.com/USAF/USAF-AFMC/</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCRP_6-22D_14371/</t>
+          <t>http://everyspec.com/USAF/USAF-AFSC/</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCWP_2-12_2001_35364/</t>
+          <t>http://everyspec.com/USAF/USAF-General/</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCWP_2-14_2000_35357/</t>
+          <t>http://everyspec.com/USAF/USAF-RADC/</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USMC/MCWP_2-15x2_1999_13721/</t>
+          <t>http://everyspec.com/USAF/USAF-SMC/</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USN/NAVAIR/</t>
+          <t>http://everyspec.com/USAF/USAF-Tech-Manuals/</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USN/NAVEDTRA/</t>
+          <t>http://everyspec.com/USAF/</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USN/NAVSEA/</t>
+          <t>http://everyspec.com/USCG/CGTO_PG-85-00-110_2007_28633/</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USN/NAVY-General/</t>
+          <t>http://everyspec.com/USCG/CGTO_PG-85-00-40-S_2009_30233/</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USN/NSWC/</t>
+          <t>http://everyspec.com/USCG/COMDTINST_M5728--2C_Public-Affairs_4096/</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>http://everyspec.com/USN/SECNAV/</t>
+          <t>http://everyspec.com/USCG/COMDTINST_9000_6E_50595/</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M4610--5A_30402/</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M5260x6_29054/</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M5728--2D_JAN2008_51446/</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M9085--1A_14485/</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M9085--1B_14486/</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M10360x3B_4093/</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M10360x3C_52514/</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M10360--3C_CHG-1_13797/</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M10470x10E_50603/</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M10550-25B_9349/</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M13020-1F_9348/</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M16114x5C_50599/</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M16114x24B_4098/</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M16114x28_50609/</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M16114--32_50596/</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M16114_37A_JUN2004_50594/</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M16794_51A_4095/</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMDTINST_M16796x8_4097/</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/COMMANDANT_PUBLICATION_P16562--5-pdf_4099/</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/M16672x2D_50606/</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/MLCA_STD_SPEC_0740_STD_2004_3693/</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/MLCA_STD_SPEC_3141_STD_14487/</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/MLCPAC_STANDARD_SPECIFICATION_634-_DECK_COVERING_RENEWAL_3864/</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/MLCPAC_STD-SPEC_304x2_4094/</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USCG/MLCPAC_STD_SPEC_074_4091/</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MAGTF-JA-HDBK_2013_49369/</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCDP-1_20JUN1997_21376/</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCDP_1-0_2001_35346/</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCDP_1-1_12NOV1997_50420/</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCDP_1-2_1997_35347/</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCDP_1-3_1997_35358/</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCDP_2_1997_35350/</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCDP_3_1998_35359/</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCDP_4_1997_35360/</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCDP_5_1997_35349/</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCDP_6_1996_35348/</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCO_P1020--34G_CHG_1-5_31MAR2003_50116/</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCO_P4030x36A_14023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_3-02B_13346/</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_3-0A_1996_35376/</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_3-01A_29MAR2001_13708/</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_3-01B_11851/</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_3-02C_2003_35365/</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_3-11x1A_1988_35377/</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_3-31_2000_35373/</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_3-35--1D_2011_35374/</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_4-11x8B_2005_35355/</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_5-2A_FM_101-5-1_1997_35368/</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_5-12D_1998_35367/</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_6-11B_CHG-1_1998_35366/</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCRP_6-22D_14371/</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCWP_2-12_2001_35364/</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCWP_2-14_2000_35357/</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USMC/MCWP_2-15x2_1999_13721/</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USN/NAVAIR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USN/NAVEDTRA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USN/NAVSEA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USN/NAVY-General/</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USN/NSWC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/USN/SECNAV/</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
         <is>
           <t>http://everyspec.com/USN/</t>
         </is>
